--- a/PrestaShopData.xlsx
+++ b/PrestaShopData.xlsx
@@ -1,37 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D06F54E-36AC-4654-B257-519BC2C90E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testing\Friday group 1\PrestaShopAutomation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEFGH</t>
+  </si>
+  <si>
+    <t>deepakshi927@gmail.com</t>
+  </si>
+  <si>
+    <t>7674shd@Adh</t>
+  </si>
+  <si>
+    <t>11/11/2001</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -50,33 +72,20 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -85,10 +94,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -257,6 +266,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -283,24 +293,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -361,28 +372,60 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.57031" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>